--- a/maijian.xlsx
+++ b/maijian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\AutoCalcSheetBookDocx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89094CB1-270D-4331-8ADD-06D02D5F5DD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AED76C-104B-41E0-BDD2-F0444A822D97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="1185" windowWidth="22200" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14520" yWindow="1650" windowWidth="17640" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>锚筋牌号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -81,9 +81,6 @@
   <si>
     <t>水平向剪力/N</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HRB401</t>
   </si>
 </sst>
 </file>
@@ -474,7 +471,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -577,10 +574,10 @@
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3">
         <v>40</v>

--- a/maijian.xlsx
+++ b/maijian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\AutoCalcSheetBookDocx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AED76C-104B-41E0-BDD2-F0444A822D97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCEC287-69D2-4143-AF89-3E4DB095AB8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="1650" windowWidth="17640" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17190" yWindow="1155" windowWidth="17640" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>锚筋牌号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -471,7 +471,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -614,64 +614,168 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="A4" s="3">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3">
+        <v>980</v>
+      </c>
+      <c r="E4" s="3">
+        <v>740</v>
+      </c>
+      <c r="F4" s="3">
+        <v>140</v>
+      </c>
+      <c r="G4" s="3">
+        <v>160</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3">
+        <v>6</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1097100</v>
+      </c>
+      <c r="L4" s="3">
+        <v>-923200</v>
+      </c>
+      <c r="M4" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="A5" s="3">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3">
+        <v>980</v>
+      </c>
+      <c r="E5" s="3">
+        <v>740</v>
+      </c>
+      <c r="F5" s="3">
+        <v>140</v>
+      </c>
+      <c r="G5" s="3">
+        <v>160</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3">
+        <v>6</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>897200</v>
+      </c>
+      <c r="L5" s="3">
+        <v>923200</v>
+      </c>
+      <c r="M5" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="A6" s="3">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3">
+        <v>740</v>
+      </c>
+      <c r="E6" s="3">
+        <v>980</v>
+      </c>
+      <c r="F6" s="3">
+        <v>160</v>
+      </c>
+      <c r="G6" s="3">
+        <v>140</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3">
+        <v>665500</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>584800</v>
+      </c>
+      <c r="M6" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="A7" s="3">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3">
+        <v>740</v>
+      </c>
+      <c r="E7" s="3">
+        <v>980</v>
+      </c>
+      <c r="F7" s="3">
+        <v>160</v>
+      </c>
+      <c r="G7" s="3">
+        <v>140</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6</v>
+      </c>
+      <c r="I7" s="3">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3">
+        <v>665500</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>-900300</v>
+      </c>
+      <c r="M7" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
